--- a/SchedulingData/dynamic13/pso/scheduling1_20.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_20.xlsx
@@ -466,36 +466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.78</v>
+        <v>52.1</v>
       </c>
       <c r="E2" t="n">
-        <v>26.592</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>52.3</v>
+        <v>52.94</v>
       </c>
       <c r="E3" t="n">
-        <v>26.96</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="4">
@@ -504,74 +504,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52.3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>102.82</v>
+        <v>63.52</v>
       </c>
       <c r="E4" t="n">
-        <v>24.048</v>
+        <v>26.308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55.78</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>92.04000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="E5" t="n">
-        <v>24.096</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>52.1</v>
       </c>
       <c r="D6" t="n">
-        <v>42.2</v>
+        <v>97.94</v>
       </c>
       <c r="E6" t="n">
-        <v>26.48</v>
+        <v>23.016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>102.82</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.62</v>
+        <v>51.66</v>
       </c>
       <c r="E7" t="n">
-        <v>21.168</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92.04000000000001</v>
+        <v>97.94</v>
       </c>
       <c r="D8" t="n">
-        <v>135.34</v>
+        <v>149.54</v>
       </c>
       <c r="E8" t="n">
-        <v>21.896</v>
+        <v>19.976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>135.34</v>
+        <v>60.3</v>
       </c>
       <c r="D9" t="n">
-        <v>174.8</v>
+        <v>126.86</v>
       </c>
       <c r="E9" t="n">
-        <v>19.08</v>
+        <v>23.584</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.8</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>26.22</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>84.78</v>
+        <v>119.78</v>
       </c>
       <c r="E11" t="n">
-        <v>26.672</v>
+        <v>22.312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42.2</v>
+        <v>119.78</v>
       </c>
       <c r="D12" t="n">
-        <v>119.58</v>
+        <v>168.04</v>
       </c>
       <c r="E12" t="n">
-        <v>23.312</v>
+        <v>18.616</v>
       </c>
     </row>
     <row r="13">
@@ -675,74 +675,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>119.58</v>
+        <v>52.94</v>
       </c>
       <c r="D13" t="n">
-        <v>179.58</v>
+        <v>112.68</v>
       </c>
       <c r="E13" t="n">
-        <v>18.452</v>
+        <v>23.012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>112.68</v>
       </c>
       <c r="D14" t="n">
-        <v>57.1</v>
+        <v>152.88</v>
       </c>
       <c r="E14" t="n">
-        <v>25.98</v>
+        <v>19.632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57.1</v>
+        <v>168.04</v>
       </c>
       <c r="D15" t="n">
-        <v>103.26</v>
+        <v>234.84</v>
       </c>
       <c r="E15" t="n">
-        <v>22.004</v>
+        <v>14.536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>44.8</v>
+        <v>234.84</v>
       </c>
       <c r="D16" t="n">
-        <v>126.1</v>
+        <v>299.24</v>
       </c>
       <c r="E16" t="n">
-        <v>22.68</v>
+        <v>10.696</v>
       </c>
     </row>
     <row r="17">
@@ -751,226 +751,226 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>126.1</v>
+        <v>126.86</v>
       </c>
       <c r="D17" t="n">
-        <v>177.66</v>
+        <v>169.26</v>
       </c>
       <c r="E17" t="n">
-        <v>19.144</v>
+        <v>19.984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>179.58</v>
+        <v>51.66</v>
       </c>
       <c r="D18" t="n">
-        <v>254.42</v>
+        <v>126.36</v>
       </c>
       <c r="E18" t="n">
-        <v>14.588</v>
+        <v>23.164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>174.8</v>
+        <v>299.24</v>
       </c>
       <c r="D19" t="n">
-        <v>227.1</v>
+        <v>338.8</v>
       </c>
       <c r="E19" t="n">
-        <v>15.48</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>227.1</v>
+        <v>126.36</v>
       </c>
       <c r="D20" t="n">
-        <v>282.74</v>
+        <v>189.08</v>
       </c>
       <c r="E20" t="n">
-        <v>12.516</v>
+        <v>19.992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>157.62</v>
+        <v>189.08</v>
       </c>
       <c r="D21" t="n">
-        <v>206.8</v>
+        <v>260.38</v>
       </c>
       <c r="E21" t="n">
-        <v>18.36</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>254.42</v>
+        <v>149.54</v>
       </c>
       <c r="D22" t="n">
-        <v>299.32</v>
+        <v>219.18</v>
       </c>
       <c r="E22" t="n">
-        <v>11.228</v>
+        <v>16.112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>206.8</v>
+        <v>152.88</v>
       </c>
       <c r="D23" t="n">
-        <v>284.3</v>
+        <v>223.88</v>
       </c>
       <c r="E23" t="n">
-        <v>14.2</v>
+        <v>16.112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>103.26</v>
+        <v>219.18</v>
       </c>
       <c r="D24" t="n">
-        <v>160.62</v>
+        <v>263.38</v>
       </c>
       <c r="E24" t="n">
-        <v>18.868</v>
+        <v>13.312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>84.78</v>
+        <v>169.26</v>
       </c>
       <c r="D25" t="n">
-        <v>153.1</v>
+        <v>227.32</v>
       </c>
       <c r="E25" t="n">
-        <v>22.46</v>
+        <v>16.288</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>153.1</v>
+        <v>63.52</v>
       </c>
       <c r="D26" t="n">
-        <v>211.16</v>
+        <v>133.22</v>
       </c>
       <c r="E26" t="n">
-        <v>18.764</v>
+        <v>21.448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>211.16</v>
+        <v>223.88</v>
       </c>
       <c r="D27" t="n">
-        <v>255.46</v>
+        <v>294.84</v>
       </c>
       <c r="E27" t="n">
-        <v>15.964</v>
+        <v>13.616</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>282.74</v>
+        <v>294.84</v>
       </c>
       <c r="D28" t="n">
-        <v>352.48</v>
+        <v>351.4</v>
       </c>
       <c r="E28" t="n">
-        <v>8.651999999999999</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>160.62</v>
+        <v>260.38</v>
       </c>
       <c r="D29" t="n">
-        <v>210.32</v>
+        <v>318.18</v>
       </c>
       <c r="E29" t="n">
-        <v>15.028</v>
+        <v>12.292</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>284.3</v>
+        <v>133.22</v>
       </c>
       <c r="D30" t="n">
-        <v>352.32</v>
+        <v>182.7</v>
       </c>
       <c r="E30" t="n">
-        <v>10.508</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>177.66</v>
+        <v>227.32</v>
       </c>
       <c r="D31" t="n">
-        <v>260.08</v>
+        <v>311.12</v>
       </c>
       <c r="E31" t="n">
-        <v>15.972</v>
+        <v>12.508</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>210.32</v>
+        <v>263.38</v>
       </c>
       <c r="D32" t="n">
-        <v>285.02</v>
+        <v>340.26</v>
       </c>
       <c r="E32" t="n">
-        <v>12.168</v>
+        <v>10.244</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>260.08</v>
+        <v>311.12</v>
       </c>
       <c r="D33" t="n">
-        <v>329.68</v>
+        <v>360.82</v>
       </c>
       <c r="E33" t="n">
-        <v>12.592</v>
+        <v>9.648</v>
       </c>
     </row>
     <row r="34">
@@ -1074,74 +1074,74 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>352.32</v>
+        <v>182.7</v>
       </c>
       <c r="D34" t="n">
-        <v>399.86</v>
+        <v>252.98</v>
       </c>
       <c r="E34" t="n">
-        <v>7.384</v>
+        <v>14.712</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>299.32</v>
+        <v>252.98</v>
       </c>
       <c r="D35" t="n">
-        <v>357.48</v>
+        <v>307.68</v>
       </c>
       <c r="E35" t="n">
-        <v>7.532</v>
+        <v>11.352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>329.68</v>
+        <v>318.18</v>
       </c>
       <c r="D36" t="n">
-        <v>385.74</v>
+        <v>356.26</v>
       </c>
       <c r="E36" t="n">
-        <v>9.116</v>
+        <v>9.124000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>399.86</v>
+        <v>351.4</v>
       </c>
       <c r="D37" t="n">
-        <v>446.52</v>
+        <v>387.1</v>
       </c>
       <c r="E37" t="n">
-        <v>3.848</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="38">
@@ -1150,74 +1150,74 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>285.02</v>
+        <v>356.26</v>
       </c>
       <c r="D38" t="n">
-        <v>324.92</v>
+        <v>418.82</v>
       </c>
       <c r="E38" t="n">
-        <v>9.308</v>
+        <v>5.988</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>324.92</v>
+        <v>340.26</v>
       </c>
       <c r="D39" t="n">
-        <v>401.92</v>
+        <v>394.44</v>
       </c>
       <c r="E39" t="n">
-        <v>5.228</v>
+        <v>7.436</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>385.74</v>
+        <v>307.68</v>
       </c>
       <c r="D40" t="n">
-        <v>441.14</v>
+        <v>355.98</v>
       </c>
       <c r="E40" t="n">
-        <v>6.676</v>
+        <v>9.151999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>352.48</v>
+        <v>338.8</v>
       </c>
       <c r="D41" t="n">
-        <v>404.46</v>
+        <v>413.82</v>
       </c>
       <c r="E41" t="n">
-        <v>5.584</v>
+        <v>4.968</v>
       </c>
     </row>
   </sheetData>
